--- a/database/industries/chemical/shamla/cost/quarterly.xlsx
+++ b/database/industries/chemical/shamla/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93A452-57CC-4C84-A336-7023E4766AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاملا-معدنی‌ املاح‌  ایران‌</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -266,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +437,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -448,7 +449,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -495,6 +496,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -530,6 +548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,17 +716,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -701,7 +736,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +748,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +760,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -735,7 +770,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +782,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -759,7 +794,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -769,7 +804,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -791,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -801,95 +836,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>273808</v>
+        <v>328873</v>
       </c>
       <c r="F10" s="9">
-        <v>328873</v>
+        <v>489886</v>
       </c>
       <c r="G10" s="9">
-        <v>489886</v>
+        <v>420175</v>
       </c>
       <c r="H10" s="9">
-        <v>420175</v>
+        <v>412557</v>
       </c>
       <c r="I10" s="9">
-        <v>412557</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>434212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>93841</v>
+        <v>102699</v>
       </c>
       <c r="F11" s="11">
-        <v>102699</v>
+        <v>119312</v>
       </c>
       <c r="G11" s="11">
-        <v>119312</v>
+        <v>123641</v>
       </c>
       <c r="H11" s="11">
-        <v>123641</v>
+        <v>182504</v>
       </c>
       <c r="I11" s="11">
-        <v>182504</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146415</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>229824</v>
+        <v>292062</v>
       </c>
       <c r="F12" s="9">
-        <v>292062</v>
+        <v>435911</v>
       </c>
       <c r="G12" s="9">
-        <v>435911</v>
+        <v>320067</v>
       </c>
       <c r="H12" s="9">
-        <v>320067</v>
+        <v>403876</v>
       </c>
       <c r="I12" s="9">
-        <v>403876</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>597473</v>
+        <v>723634</v>
       </c>
       <c r="F13" s="13">
-        <v>723634</v>
+        <v>1045109</v>
       </c>
       <c r="G13" s="13">
-        <v>1045109</v>
+        <v>863883</v>
       </c>
       <c r="H13" s="13">
-        <v>863883</v>
+        <v>998937</v>
       </c>
       <c r="I13" s="13">
-        <v>998937</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>938792</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -911,29 +946,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>597473</v>
+        <v>723634</v>
       </c>
       <c r="F15" s="13">
-        <v>723634</v>
+        <v>1045109</v>
       </c>
       <c r="G15" s="13">
-        <v>1045109</v>
+        <v>863883</v>
       </c>
       <c r="H15" s="13">
-        <v>863883</v>
+        <v>998937</v>
       </c>
       <c r="I15" s="13">
-        <v>998937</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>938792</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -955,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -977,29 +1012,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>597473</v>
+        <v>723634</v>
       </c>
       <c r="F18" s="15">
-        <v>723634</v>
+        <v>1045109</v>
       </c>
       <c r="G18" s="15">
-        <v>1045109</v>
+        <v>863883</v>
       </c>
       <c r="H18" s="15">
-        <v>863883</v>
+        <v>998937</v>
       </c>
       <c r="I18" s="15">
-        <v>998937</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>938792</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1009,63 +1044,63 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>17651</v>
       </c>
       <c r="G19" s="11">
-        <v>60464</v>
+        <v>96674</v>
       </c>
       <c r="H19" s="11">
-        <v>96674</v>
+        <v>151085</v>
       </c>
       <c r="I19" s="11">
-        <v>151085</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>140463</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-17045</v>
+        <v>-17651</v>
       </c>
       <c r="F20" s="9">
-        <v>-17651</v>
+        <v>-96674</v>
       </c>
       <c r="G20" s="9">
-        <v>-96674</v>
+        <v>-151085</v>
       </c>
       <c r="H20" s="9">
-        <v>-151085</v>
+        <v>-140463</v>
       </c>
       <c r="I20" s="9">
-        <v>-140463</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-122549</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>580428</v>
+        <v>705983</v>
       </c>
       <c r="F21" s="13">
-        <v>705983</v>
+        <v>1008899</v>
       </c>
       <c r="G21" s="13">
-        <v>1008899</v>
+        <v>809472</v>
       </c>
       <c r="H21" s="13">
-        <v>809472</v>
+        <v>1009559</v>
       </c>
       <c r="I21" s="13">
-        <v>1009559</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>956706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1087,29 +1122,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>580428</v>
+        <v>705983</v>
       </c>
       <c r="F23" s="13">
-        <v>705983</v>
+        <v>1008899</v>
       </c>
       <c r="G23" s="13">
-        <v>1008899</v>
+        <v>809472</v>
       </c>
       <c r="H23" s="13">
-        <v>809472</v>
+        <v>1009559</v>
       </c>
       <c r="I23" s="13">
-        <v>1009559</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>956706</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1119,7 +1154,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1129,7 +1164,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1139,7 +1174,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1161,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1171,7 +1206,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1185,17 +1220,17 @@
       <c r="F29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>26</v>
+      <c r="G29" s="9">
+        <v>1236</v>
       </c>
       <c r="H29" s="9">
-        <v>1236</v>
+        <v>1870</v>
       </c>
       <c r="I29" s="9">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1219,29 +1254,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
         <v>15675</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
+      <c r="F31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="9">
+        <v>293314</v>
       </c>
       <c r="H31" s="9">
         <v>293314</v>
       </c>
       <c r="I31" s="9">
-        <v>293314</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>203314</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1250,22 +1285,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>26536</v>
-      </c>
-      <c r="F32" s="11">
         <v>28423</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
+      <c r="F32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="11">
+        <v>176250</v>
       </c>
       <c r="H32" s="11">
-        <v>176250</v>
+        <v>172768</v>
       </c>
       <c r="I32" s="11">
-        <v>172768</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29819</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1274,22 +1309,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>80512</v>
-      </c>
-      <c r="F33" s="9">
         <v>86711</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
+      <c r="F33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="9">
+        <v>94899</v>
       </c>
       <c r="H33" s="9">
-        <v>94899</v>
+        <v>92838</v>
       </c>
       <c r="I33" s="9">
-        <v>92838</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79895</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1298,22 +1333,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>524686</v>
-      </c>
-      <c r="F34" s="11">
         <v>1154032</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>26</v>
+      <c r="F34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="11">
+        <v>722062</v>
       </c>
       <c r="H34" s="11">
-        <v>722062</v>
+        <v>518926</v>
       </c>
       <c r="I34" s="11">
-        <v>518926</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1087614</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1322,44 +1357,44 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>205</v>
-      </c>
-      <c r="F35" s="9">
         <v>179</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>26</v>
+      <c r="F35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="9">
+        <v>95</v>
       </c>
       <c r="H35" s="9">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>631939</v>
+        <v>1285020</v>
       </c>
       <c r="F36" s="13">
-        <v>1285020</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>0</v>
+        <v>1287856</v>
       </c>
       <c r="H36" s="13">
-        <v>1287856</v>
+        <v>1079778</v>
       </c>
       <c r="I36" s="13">
-        <v>1079778</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1402723</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1369,7 +1404,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1379,7 +1414,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1389,7 +1424,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1421,7 +1456,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1429,23 +1464,23 @@
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>-25</v>
       </c>
       <c r="F42" s="9">
-        <v>-25</v>
+        <v>461</v>
       </c>
       <c r="G42" s="9">
-        <v>461</v>
+        <v>634</v>
       </c>
       <c r="H42" s="9">
-        <v>634</v>
+        <v>155</v>
       </c>
       <c r="I42" s="9">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1453,8 +1488,8 @@
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
-        <v>800</v>
+      <c r="E43" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>26</v>
@@ -1469,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1485,13 +1520,13 @@
         <v>200000</v>
       </c>
       <c r="H44" s="9">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="I44" s="9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>118245</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1500,22 +1535,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>16887</v>
+        <v>11561</v>
       </c>
       <c r="F45" s="11">
-        <v>11561</v>
+        <v>159865</v>
       </c>
       <c r="G45" s="11">
-        <v>159865</v>
+        <v>8618</v>
       </c>
       <c r="H45" s="11">
-        <v>8618</v>
+        <v>22407</v>
       </c>
       <c r="I45" s="11">
-        <v>22407</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12436</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
@@ -1524,22 +1559,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>36266</v>
+        <v>17460</v>
       </c>
       <c r="F46" s="9">
-        <v>17460</v>
+        <v>20087</v>
       </c>
       <c r="G46" s="9">
-        <v>20087</v>
+        <v>20859</v>
       </c>
       <c r="H46" s="9">
-        <v>20859</v>
+        <v>18054</v>
       </c>
       <c r="I46" s="9">
-        <v>18054</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-526</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>31</v>
       </c>
@@ -1548,22 +1583,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>836947</v>
+        <v>-52534</v>
       </c>
       <c r="F47" s="11">
-        <v>-52534</v>
+        <v>56184</v>
       </c>
       <c r="G47" s="11">
-        <v>56184</v>
+        <v>27214</v>
       </c>
       <c r="H47" s="11">
-        <v>27214</v>
+        <v>746776</v>
       </c>
       <c r="I47" s="11">
-        <v>746776</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39723</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -1572,44 +1607,44 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="9">
+        <v>-13</v>
+      </c>
+      <c r="G48" s="9">
         <v>1</v>
       </c>
-      <c r="G48" s="9">
-        <v>-13</v>
-      </c>
       <c r="H48" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>1090900</v>
+        <v>176463</v>
       </c>
       <c r="F49" s="13">
-        <v>176463</v>
+        <v>436584</v>
       </c>
       <c r="G49" s="13">
-        <v>436584</v>
+        <v>257326</v>
       </c>
       <c r="H49" s="13">
-        <v>257326</v>
+        <v>797405</v>
       </c>
       <c r="I49" s="13">
-        <v>797405</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>169854</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1619,7 +1654,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1629,7 +1664,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1639,7 +1674,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1671,7 +1706,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1714,8 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>0</v>
       </c>
       <c r="F55" s="9">
         <v>0</v>
@@ -1695,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1703,8 +1738,8 @@
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>0</v>
+      <c r="E56" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>26</v>
@@ -1719,29 +1754,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>184325</v>
+        <v>129623</v>
       </c>
       <c r="F57" s="9">
-        <v>129623</v>
+        <v>142738</v>
       </c>
       <c r="G57" s="9">
-        <v>142738</v>
+        <v>200000</v>
       </c>
       <c r="H57" s="9">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I57" s="9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1750,22 +1785,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>15000</v>
+        <v>12599</v>
       </c>
       <c r="F58" s="11">
-        <v>12599</v>
+        <v>11000</v>
       </c>
       <c r="G58" s="11">
-        <v>11000</v>
+        <v>12100</v>
       </c>
       <c r="H58" s="11">
-        <v>12100</v>
+        <v>15050</v>
       </c>
       <c r="I58" s="11">
-        <v>15050</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14282</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>30</v>
       </c>
@@ -1774,22 +1809,22 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>30067</v>
+        <v>8350</v>
       </c>
       <c r="F59" s="9">
-        <v>8350</v>
+        <v>21009</v>
       </c>
       <c r="G59" s="9">
-        <v>21009</v>
+        <v>22920</v>
       </c>
       <c r="H59" s="9">
-        <v>22920</v>
+        <v>30997</v>
       </c>
       <c r="I59" s="9">
-        <v>30997</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
@@ -1798,22 +1833,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>207601</v>
+        <v>216630</v>
       </c>
       <c r="F60" s="11">
-        <v>216630</v>
+        <v>219030</v>
       </c>
       <c r="G60" s="11">
-        <v>219030</v>
+        <v>230350</v>
       </c>
       <c r="H60" s="11">
-        <v>230350</v>
+        <v>178088</v>
       </c>
       <c r="I60" s="11">
-        <v>178088</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>183427</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>32</v>
       </c>
@@ -1822,44 +1857,44 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F61" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61" s="9">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="I61" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>437019</v>
+        <v>367237</v>
       </c>
       <c r="F62" s="13">
-        <v>367237</v>
+        <v>393814</v>
       </c>
       <c r="G62" s="13">
-        <v>393814</v>
+        <v>465404</v>
       </c>
       <c r="H62" s="13">
-        <v>465404</v>
+        <v>324154</v>
       </c>
       <c r="I62" s="13">
-        <v>324154</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>337375</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1869,7 +1904,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1879,7 +1914,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1889,7 +1924,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1921,7 +1956,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1929,23 +1964,23 @@
         <v>25</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>26</v>
+      <c r="E68" s="9">
+        <v>775</v>
       </c>
       <c r="F68" s="9">
-        <v>775</v>
+        <v>1236</v>
       </c>
       <c r="G68" s="9">
-        <v>1236</v>
+        <v>1870</v>
       </c>
       <c r="H68" s="9">
-        <v>1870</v>
+        <v>2025</v>
       </c>
       <c r="I68" s="9">
         <v>2025</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1953,8 +1988,8 @@
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>800</v>
+      <c r="E69" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>26</v>
@@ -1969,29 +2004,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>15675</v>
+        <v>86052</v>
       </c>
       <c r="F70" s="9">
-        <v>86052</v>
+        <v>293314</v>
       </c>
       <c r="G70" s="9">
         <v>293314</v>
       </c>
       <c r="H70" s="9">
-        <v>293314</v>
+        <v>203314</v>
       </c>
       <c r="I70" s="9">
-        <v>203314</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>201559</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -2000,22 +2035,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>28423</v>
+        <v>27385</v>
       </c>
       <c r="F71" s="11">
-        <v>27385</v>
+        <v>176250</v>
       </c>
       <c r="G71" s="11">
-        <v>176250</v>
+        <v>172768</v>
       </c>
       <c r="H71" s="11">
-        <v>172768</v>
+        <v>29819</v>
       </c>
       <c r="I71" s="11">
-        <v>29819</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27973</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>30</v>
       </c>
@@ -2024,22 +2059,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>86711</v>
+        <v>95821</v>
       </c>
       <c r="F72" s="9">
-        <v>95821</v>
+        <v>94899</v>
       </c>
       <c r="G72" s="9">
-        <v>94899</v>
+        <v>92838</v>
       </c>
       <c r="H72" s="9">
-        <v>92838</v>
+        <v>79895</v>
       </c>
       <c r="I72" s="9">
-        <v>79895</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59723</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
@@ -2048,22 +2083,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>1154032</v>
+        <v>884868</v>
       </c>
       <c r="F73" s="11">
-        <v>884868</v>
+        <v>722062</v>
       </c>
       <c r="G73" s="11">
-        <v>722062</v>
+        <v>518926</v>
       </c>
       <c r="H73" s="11">
-        <v>518926</v>
+        <v>1087614</v>
       </c>
       <c r="I73" s="11">
-        <v>1087614</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>943910</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>32</v>
       </c>
@@ -2072,44 +2107,44 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F74" s="9">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="G74" s="9">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H74" s="9">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I74" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>1285820</v>
+        <v>1095046</v>
       </c>
       <c r="F75" s="13">
-        <v>1095046</v>
+        <v>1287856</v>
       </c>
       <c r="G75" s="13">
-        <v>1287856</v>
+        <v>1079778</v>
       </c>
       <c r="H75" s="13">
-        <v>1079778</v>
+        <v>1402723</v>
       </c>
       <c r="I75" s="13">
-        <v>1402723</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1235226</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2119,7 +2154,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2129,7 +2164,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2139,7 +2174,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2171,7 +2206,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2185,17 +2220,17 @@
       <c r="F81" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>26</v>
+      <c r="G81" s="9">
+        <v>111488</v>
       </c>
       <c r="H81" s="9">
-        <v>111488</v>
+        <v>166616</v>
       </c>
       <c r="I81" s="9">
-        <v>166616</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>180140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2228,22 +2263,22 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>106374</v>
-      </c>
-      <c r="F83" s="9">
         <v>106179</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>26</v>
+      <c r="F83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="9">
+        <v>202929</v>
       </c>
       <c r="H83" s="9">
-        <v>202929</v>
+        <v>208040</v>
       </c>
       <c r="I83" s="9">
-        <v>208040</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>138289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2252,22 +2287,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>31306</v>
-      </c>
-      <c r="F84" s="11">
         <v>37717</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>26</v>
+      <c r="F84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="11">
+        <v>37619</v>
       </c>
       <c r="H84" s="11">
-        <v>37619</v>
+        <v>34365</v>
       </c>
       <c r="I84" s="11">
-        <v>34365</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>53047</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>30</v>
       </c>
@@ -2276,22 +2311,22 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>39435</v>
-      </c>
-      <c r="F85" s="9">
         <v>46586</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>26</v>
+      <c r="F85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="9">
+        <v>66554</v>
       </c>
       <c r="H85" s="9">
-        <v>66554</v>
+        <v>71049</v>
       </c>
       <c r="I85" s="9">
-        <v>71049</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62011</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
@@ -2300,22 +2335,22 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>205269</v>
-      </c>
-      <c r="F86" s="11">
         <v>308263</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>26</v>
+      <c r="F86" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="11">
+        <v>493958</v>
       </c>
       <c r="H86" s="11">
-        <v>493958</v>
+        <v>510861</v>
       </c>
       <c r="I86" s="11">
-        <v>510861</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>836194</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>32</v>
       </c>
@@ -2324,44 +2359,44 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>167202</v>
-      </c>
-      <c r="F87" s="9">
         <v>145749</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>26</v>
+      <c r="F87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="9">
+        <v>88073</v>
       </c>
       <c r="H87" s="9">
-        <v>88073</v>
+        <v>60902</v>
       </c>
       <c r="I87" s="9">
-        <v>60902</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>549586</v>
+        <v>644494</v>
       </c>
       <c r="F88" s="13">
-        <v>644494</v>
+        <v>0</v>
       </c>
       <c r="G88" s="13">
-        <v>0</v>
+        <v>1000621</v>
       </c>
       <c r="H88" s="13">
-        <v>1000621</v>
+        <v>1051833</v>
       </c>
       <c r="I88" s="13">
-        <v>1051833</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1315584</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2371,7 +2406,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2381,7 +2416,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2391,7 +2426,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>38</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2423,7 +2458,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2431,23 +2466,23 @@
         <v>37</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>26</v>
+      <c r="E94" s="9">
+        <v>-4837</v>
       </c>
       <c r="F94" s="9">
-        <v>-4837</v>
+        <v>40136</v>
       </c>
       <c r="G94" s="9">
-        <v>40136</v>
+        <v>55128</v>
       </c>
       <c r="H94" s="9">
-        <v>55128</v>
+        <v>13524</v>
       </c>
       <c r="I94" s="9">
-        <v>13524</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2455,8 +2490,8 @@
         <v>37</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>76189</v>
+      <c r="E95" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>26</v>
@@ -2471,7 +2506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2480,22 +2515,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>75860</v>
+        <v>156555</v>
       </c>
       <c r="F96" s="9">
-        <v>156555</v>
+        <v>148643</v>
       </c>
       <c r="G96" s="9">
-        <v>148643</v>
+        <v>101138</v>
       </c>
       <c r="H96" s="9">
-        <v>101138</v>
+        <v>58855</v>
       </c>
       <c r="I96" s="9">
-        <v>58855</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>126029</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2504,22 +2539,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>25844</v>
+        <v>17498</v>
       </c>
       <c r="F97" s="11">
-        <v>17498</v>
+        <v>15365</v>
       </c>
       <c r="G97" s="11">
-        <v>15365</v>
+        <v>14783</v>
       </c>
       <c r="H97" s="11">
-        <v>14783</v>
+        <v>45010</v>
       </c>
       <c r="I97" s="11">
-        <v>45010</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21452</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>30</v>
       </c>
@@ -2528,22 +2563,22 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>25029</v>
+        <v>15318</v>
       </c>
       <c r="F98" s="9">
-        <v>15318</v>
+        <v>22503</v>
       </c>
       <c r="G98" s="9">
-        <v>22503</v>
+        <v>21751</v>
       </c>
       <c r="H98" s="9">
-        <v>21751</v>
+        <v>15511</v>
       </c>
       <c r="I98" s="9">
-        <v>15511</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
@@ -2552,22 +2587,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>241983</v>
+        <v>170038</v>
       </c>
       <c r="F99" s="11">
-        <v>170038</v>
+        <v>516972</v>
       </c>
       <c r="G99" s="11">
-        <v>516972</v>
+        <v>277671</v>
       </c>
       <c r="H99" s="11">
-        <v>277671</v>
+        <v>543252</v>
       </c>
       <c r="I99" s="11">
-        <v>543252</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>297390</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>32</v>
       </c>
@@ -2576,44 +2611,44 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="F100" s="9">
-        <v>792</v>
+        <v>-286</v>
       </c>
       <c r="G100" s="9">
-        <v>-286</v>
+        <v>916</v>
       </c>
       <c r="H100" s="9">
-        <v>916</v>
+        <v>156</v>
       </c>
       <c r="I100" s="9">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>444905</v>
+        <v>355364</v>
       </c>
       <c r="F101" s="13">
-        <v>355364</v>
+        <v>743333</v>
       </c>
       <c r="G101" s="13">
-        <v>743333</v>
+        <v>471387</v>
       </c>
       <c r="H101" s="13">
-        <v>471387</v>
+        <v>676308</v>
       </c>
       <c r="I101" s="13">
-        <v>676308</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>445280</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2623,7 +2658,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2633,7 +2668,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2643,7 +2678,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>39</v>
       </c>
@@ -2665,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2675,7 +2710,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2683,8 +2718,8 @@
         <v>37</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>26</v>
+      <c r="E107" s="9">
+        <v>0</v>
       </c>
       <c r="F107" s="9">
         <v>0</v>
@@ -2699,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2707,8 +2742,8 @@
         <v>37</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
-        <v>0</v>
+      <c r="E108" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>26</v>
@@ -2723,7 +2758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2732,22 +2767,22 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>76055</v>
+        <v>102893</v>
       </c>
       <c r="F109" s="9">
-        <v>102893</v>
+        <v>105555</v>
       </c>
       <c r="G109" s="9">
-        <v>105555</v>
+        <v>96027</v>
       </c>
       <c r="H109" s="9">
-        <v>96027</v>
+        <v>128606</v>
       </c>
       <c r="I109" s="9">
-        <v>128606</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>124227</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2756,22 +2791,22 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>19433</v>
+        <v>17248</v>
       </c>
       <c r="F110" s="11">
-        <v>17248</v>
+        <v>15713</v>
       </c>
       <c r="G110" s="11">
-        <v>15713</v>
+        <v>18037</v>
       </c>
       <c r="H110" s="11">
-        <v>18037</v>
+        <v>26328</v>
       </c>
       <c r="I110" s="11">
-        <v>26328</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25243</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>30</v>
       </c>
@@ -2780,22 +2815,22 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>17878</v>
+        <v>3317</v>
       </c>
       <c r="F111" s="9">
-        <v>3317</v>
+        <v>14536</v>
       </c>
       <c r="G111" s="9">
-        <v>14536</v>
+        <v>17256</v>
       </c>
       <c r="H111" s="9">
-        <v>17256</v>
+        <v>24549</v>
       </c>
       <c r="I111" s="9">
-        <v>24549</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14911</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>31</v>
       </c>
@@ -2804,22 +2839,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>138989</v>
+        <v>178132</v>
       </c>
       <c r="F112" s="11">
-        <v>178132</v>
+        <v>323183</v>
       </c>
       <c r="G112" s="11">
-        <v>323183</v>
+        <v>260768</v>
       </c>
       <c r="H112" s="11">
-        <v>260768</v>
+        <v>217919</v>
       </c>
       <c r="I112" s="11">
-        <v>217919</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>253596</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>32</v>
       </c>
@@ -2828,44 +2863,44 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>21453</v>
+        <v>27283</v>
       </c>
       <c r="F113" s="9">
-        <v>27283</v>
+        <v>30899</v>
       </c>
       <c r="G113" s="9">
-        <v>30899</v>
+        <v>28087</v>
       </c>
       <c r="H113" s="9">
-        <v>28087</v>
+        <v>15155</v>
       </c>
       <c r="I113" s="9">
-        <v>15155</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16235</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>273808</v>
+        <v>328873</v>
       </c>
       <c r="F114" s="13">
-        <v>328873</v>
+        <v>489886</v>
       </c>
       <c r="G114" s="13">
-        <v>489886</v>
+        <v>420175</v>
       </c>
       <c r="H114" s="13">
-        <v>420175</v>
+        <v>412557</v>
       </c>
       <c r="I114" s="13">
-        <v>412557</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>434212</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2875,7 +2910,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2885,7 +2920,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2895,7 +2930,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>40</v>
       </c>
@@ -2917,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2927,7 +2962,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2935,23 +2970,23 @@
         <v>37</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>26</v>
+      <c r="E120" s="9">
+        <v>71352</v>
       </c>
       <c r="F120" s="9">
-        <v>71352</v>
+        <v>111488</v>
       </c>
       <c r="G120" s="9">
-        <v>111488</v>
+        <v>166616</v>
       </c>
       <c r="H120" s="9">
-        <v>166616</v>
+        <v>180140</v>
       </c>
       <c r="I120" s="9">
         <v>180140</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2959,8 +2994,8 @@
         <v>37</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
-        <v>76189</v>
+      <c r="E121" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>26</v>
@@ -2975,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2984,22 +3019,22 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>106179</v>
+        <v>159841</v>
       </c>
       <c r="F122" s="9">
-        <v>159841</v>
+        <v>202929</v>
       </c>
       <c r="G122" s="9">
-        <v>202929</v>
+        <v>208040</v>
       </c>
       <c r="H122" s="9">
-        <v>208040</v>
+        <v>138289</v>
       </c>
       <c r="I122" s="9">
-        <v>138289</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139853</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -3008,22 +3043,22 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>37717</v>
+        <v>37967</v>
       </c>
       <c r="F123" s="11">
-        <v>37967</v>
+        <v>37619</v>
       </c>
       <c r="G123" s="11">
-        <v>37619</v>
+        <v>34365</v>
       </c>
       <c r="H123" s="11">
-        <v>34365</v>
+        <v>53047</v>
       </c>
       <c r="I123" s="11">
-        <v>53047</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>49257</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>30</v>
       </c>
@@ -3032,22 +3067,22 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>46586</v>
+        <v>58587</v>
       </c>
       <c r="F124" s="9">
-        <v>58587</v>
+        <v>66554</v>
       </c>
       <c r="G124" s="9">
-        <v>66554</v>
+        <v>71049</v>
       </c>
       <c r="H124" s="9">
-        <v>71049</v>
+        <v>62011</v>
       </c>
       <c r="I124" s="9">
-        <v>62011</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>47745</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>31</v>
       </c>
@@ -3056,22 +3091,22 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>308263</v>
+        <v>300169</v>
       </c>
       <c r="F125" s="11">
-        <v>300169</v>
+        <v>493958</v>
       </c>
       <c r="G125" s="11">
-        <v>493958</v>
+        <v>510861</v>
       </c>
       <c r="H125" s="11">
-        <v>510861</v>
+        <v>836194</v>
       </c>
       <c r="I125" s="11">
-        <v>836194</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>879989</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>32</v>
       </c>
@@ -3080,44 +3115,44 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>145749</v>
+        <v>119258</v>
       </c>
       <c r="F126" s="9">
-        <v>119258</v>
+        <v>88073</v>
       </c>
       <c r="G126" s="9">
-        <v>88073</v>
+        <v>60902</v>
       </c>
       <c r="H126" s="9">
-        <v>60902</v>
+        <v>45903</v>
       </c>
       <c r="I126" s="9">
-        <v>45903</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29668</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>720683</v>
+        <v>747174</v>
       </c>
       <c r="F127" s="13">
-        <v>747174</v>
+        <v>1000621</v>
       </c>
       <c r="G127" s="13">
-        <v>1000621</v>
+        <v>1051833</v>
       </c>
       <c r="H127" s="13">
-        <v>1051833</v>
+        <v>1315584</v>
       </c>
       <c r="I127" s="13">
-        <v>1315584</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1326652</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3127,7 +3162,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3137,7 +3172,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3147,7 +3182,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>41</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3179,7 +3214,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3193,17 +3228,17 @@
       <c r="F133" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>26</v>
+      <c r="G133" s="9">
+        <v>90200647</v>
       </c>
       <c r="H133" s="9">
-        <v>90200647</v>
+        <v>89099465</v>
       </c>
       <c r="I133" s="9">
-        <v>89099465</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88958025</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>28</v>
       </c>
@@ -3214,20 +3249,20 @@
       <c r="E134" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>26</v>
+      <c r="F134" s="11">
+        <v>1857493</v>
       </c>
       <c r="G134" s="11">
-        <v>1857493</v>
+        <v>691849</v>
       </c>
       <c r="H134" s="11">
-        <v>691849</v>
+        <v>709274</v>
       </c>
       <c r="I134" s="11">
-        <v>709274</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>680175</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3236,22 +3271,22 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>1179756</v>
+        <v>1326989</v>
       </c>
       <c r="F135" s="9">
-        <v>1326989</v>
+        <v>1386416</v>
       </c>
       <c r="G135" s="9">
-        <v>1386416</v>
+        <v>213441</v>
       </c>
       <c r="H135" s="9">
-        <v>213441</v>
+        <v>198908</v>
       </c>
       <c r="I135" s="9">
-        <v>198908</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1778966</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>30</v>
       </c>
@@ -3260,22 +3295,22 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>489803</v>
+        <v>537256</v>
       </c>
       <c r="F136" s="11">
-        <v>537256</v>
+        <v>611421</v>
       </c>
       <c r="G136" s="11">
-        <v>611421</v>
+        <v>701314</v>
       </c>
       <c r="H136" s="11">
-        <v>701314</v>
+        <v>765301</v>
       </c>
       <c r="I136" s="11">
-        <v>765301</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>776156</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -3284,22 +3319,22 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>391223</v>
+        <v>267118</v>
       </c>
       <c r="F137" s="9">
-        <v>267118</v>
+        <v>339225</v>
       </c>
       <c r="G137" s="9">
-        <v>339225</v>
+        <v>684094</v>
       </c>
       <c r="H137" s="9">
-        <v>684094</v>
+        <v>984458</v>
       </c>
       <c r="I137" s="9">
-        <v>984458</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>768833</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -3308,22 +3343,22 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>815619512</v>
+        <v>814240223</v>
       </c>
       <c r="F138" s="11">
-        <v>814240223</v>
+        <v>822468966</v>
       </c>
       <c r="G138" s="11">
-        <v>822468966</v>
+        <v>927084211</v>
       </c>
       <c r="H138" s="11">
-        <v>927084211</v>
+        <v>982290323</v>
       </c>
       <c r="I138" s="11">
-        <v>982290323</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>819696429</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3333,7 +3368,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3343,7 +3378,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3353,7 +3388,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>44</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3385,7 +3420,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3393,23 +3428,23 @@
         <v>42</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="9" t="s">
-        <v>26</v>
+      <c r="E144" s="9">
+        <v>193480000</v>
       </c>
       <c r="F144" s="9">
-        <v>193480000</v>
+        <v>87062907</v>
       </c>
       <c r="G144" s="9">
-        <v>87062907</v>
+        <v>86952681</v>
       </c>
       <c r="H144" s="9">
-        <v>86952681</v>
+        <v>87251613</v>
       </c>
       <c r="I144" s="9">
-        <v>87251613</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9791667</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3417,8 +3452,8 @@
         <v>42</v>
       </c>
       <c r="D145" s="11"/>
-      <c r="E145" s="11">
-        <v>95236250</v>
+      <c r="E145" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>26</v>
@@ -3433,7 +3468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3442,22 +3477,22 @@
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
-        <v>379300</v>
+        <v>782775</v>
       </c>
       <c r="F146" s="9">
-        <v>782775</v>
+        <v>743215</v>
       </c>
       <c r="G146" s="9">
-        <v>743215</v>
+        <v>505690</v>
       </c>
       <c r="H146" s="9">
-        <v>505690</v>
+        <v>5885500</v>
       </c>
       <c r="I146" s="9">
-        <v>5885500</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1065829</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3466,22 +3501,22 @@
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
-        <v>1530408</v>
+        <v>1513537</v>
       </c>
       <c r="F147" s="11">
-        <v>1513537</v>
+        <v>96112</v>
       </c>
       <c r="G147" s="11">
-        <v>96112</v>
+        <v>1715363</v>
       </c>
       <c r="H147" s="11">
-        <v>1715363</v>
+        <v>2008747</v>
       </c>
       <c r="I147" s="11">
-        <v>2008747</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1724992</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>30</v>
       </c>
@@ -3490,22 +3525,22 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>690151</v>
+        <v>877320</v>
       </c>
       <c r="F148" s="9">
-        <v>877320</v>
+        <v>1120277</v>
       </c>
       <c r="G148" s="9">
-        <v>1120277</v>
+        <v>1042763</v>
       </c>
       <c r="H148" s="9">
-        <v>1042763</v>
+        <v>859145</v>
       </c>
       <c r="I148" s="9">
-        <v>859145</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1224335</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
@@ -3514,22 +3549,22 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
-        <v>289126</v>
+        <v>-3236723</v>
       </c>
       <c r="F149" s="11">
-        <v>-3236723</v>
+        <v>9201410</v>
       </c>
       <c r="G149" s="11">
-        <v>9201410</v>
+        <v>10203241</v>
       </c>
       <c r="H149" s="11">
-        <v>10203241</v>
+        <v>727463</v>
       </c>
       <c r="I149" s="11">
-        <v>727463</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7486595</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>32</v>
       </c>
@@ -3537,23 +3572,23 @@
         <v>42</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9" t="s">
-        <v>26</v>
+      <c r="E150" s="9">
+        <v>792000000</v>
       </c>
       <c r="F150" s="9">
-        <v>792000000</v>
+        <v>22000000</v>
       </c>
       <c r="G150" s="9">
-        <v>22000000</v>
+        <v>916000000</v>
       </c>
       <c r="H150" s="9">
-        <v>916000000</v>
-      </c>
-      <c r="I150" s="9">
         <v>12000000</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3563,7 +3598,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3573,7 +3608,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3583,7 +3618,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>45</v>
       </c>
@@ -3605,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3615,7 +3650,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>28</v>
       </c>
@@ -3624,22 +3659,22 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>412614</v>
+        <v>793787</v>
       </c>
       <c r="F156" s="9">
-        <v>793787</v>
+        <v>739502</v>
       </c>
       <c r="G156" s="9">
-        <v>739502</v>
+        <v>480135</v>
       </c>
       <c r="H156" s="9">
-        <v>480135</v>
+        <v>1286060</v>
       </c>
       <c r="I156" s="9">
-        <v>1286060</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1035225</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>29</v>
       </c>
@@ -3648,22 +3683,22 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>1295533</v>
+        <v>1368998</v>
       </c>
       <c r="F157" s="11">
-        <v>1368998</v>
+        <v>1428455</v>
       </c>
       <c r="G157" s="11">
-        <v>1428455</v>
+        <v>1490661</v>
       </c>
       <c r="H157" s="11">
-        <v>1490661</v>
+        <v>1749369</v>
       </c>
       <c r="I157" s="11">
-        <v>1749369</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1767470</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>30</v>
       </c>
@@ -3672,22 +3707,22 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>594605</v>
+        <v>397246</v>
       </c>
       <c r="F158" s="9">
-        <v>397246</v>
+        <v>691894</v>
       </c>
       <c r="G158" s="9">
-        <v>691894</v>
+        <v>752880</v>
       </c>
       <c r="H158" s="9">
-        <v>752880</v>
+        <v>791980</v>
       </c>
       <c r="I158" s="9">
-        <v>791980</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>758984</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>31</v>
       </c>
@@ -3696,22 +3731,22 @@
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
-        <v>669501</v>
+        <v>822287</v>
       </c>
       <c r="F159" s="11">
-        <v>822287</v>
+        <v>1475519</v>
       </c>
       <c r="G159" s="11">
-        <v>1475519</v>
+        <v>1132051</v>
       </c>
       <c r="H159" s="11">
-        <v>1132051</v>
+        <v>1223659</v>
       </c>
       <c r="I159" s="11">
-        <v>1223659</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1382545</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>32</v>
       </c>
@@ -3720,22 +3755,22 @@
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
-        <v>825115385</v>
+        <v>779514286</v>
       </c>
       <c r="F160" s="9">
-        <v>779514286</v>
+        <v>835108108</v>
       </c>
       <c r="G160" s="9">
-        <v>835108108</v>
+        <v>826088235</v>
       </c>
       <c r="H160" s="9">
-        <v>826088235</v>
+        <v>797631579</v>
       </c>
       <c r="I160" s="9">
-        <v>797631579</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>811750000</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3745,7 +3780,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3755,7 +3790,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3765,7 +3800,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>46</v>
       </c>
@@ -3787,7 +3822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3797,7 +3832,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>24</v>
       </c>
@@ -3805,23 +3840,23 @@
         <v>25</v>
       </c>
       <c r="D166" s="9"/>
-      <c r="E166" s="9" t="s">
-        <v>26</v>
+      <c r="E166" s="9">
+        <v>92067097</v>
       </c>
       <c r="F166" s="9">
-        <v>92067097</v>
+        <v>90200647</v>
       </c>
       <c r="G166" s="9">
-        <v>90200647</v>
+        <v>89099465</v>
       </c>
       <c r="H166" s="9">
-        <v>89099465</v>
+        <v>88958025</v>
       </c>
       <c r="I166" s="9">
         <v>88958025</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>27</v>
       </c>
@@ -3829,8 +3864,8 @@
         <v>25</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="11">
-        <v>95236250</v>
+      <c r="E167" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F167" s="11" t="s">
         <v>26</v>
@@ -3845,29 +3880,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
-        <v>6773780</v>
+        <v>1857493</v>
       </c>
       <c r="F168" s="9">
-        <v>1857493</v>
+        <v>691849</v>
       </c>
       <c r="G168" s="9">
-        <v>691849</v>
+        <v>709274</v>
       </c>
       <c r="H168" s="9">
-        <v>709274</v>
+        <v>680175</v>
       </c>
       <c r="I168" s="9">
-        <v>680175</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>693856</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>29</v>
       </c>
@@ -3876,22 +3911,22 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>1326989</v>
+        <v>1386416</v>
       </c>
       <c r="F169" s="11">
-        <v>1386416</v>
+        <v>213441</v>
       </c>
       <c r="G169" s="11">
-        <v>213441</v>
+        <v>198908</v>
       </c>
       <c r="H169" s="11">
-        <v>198908</v>
+        <v>1778966</v>
       </c>
       <c r="I169" s="11">
-        <v>1778966</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1760877</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>30</v>
       </c>
@@ -3900,22 +3935,22 @@
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9">
-        <v>537256</v>
+        <v>611421</v>
       </c>
       <c r="F170" s="9">
-        <v>611421</v>
+        <v>701314</v>
       </c>
       <c r="G170" s="9">
-        <v>701314</v>
+        <v>765301</v>
       </c>
       <c r="H170" s="9">
-        <v>765301</v>
+        <v>776156</v>
       </c>
       <c r="I170" s="9">
-        <v>776156</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>799441</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>31</v>
       </c>
@@ -3924,22 +3959,22 @@
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11">
-        <v>267118</v>
+        <v>339225</v>
       </c>
       <c r="F171" s="11">
-        <v>339225</v>
+        <v>684094</v>
       </c>
       <c r="G171" s="11">
-        <v>684094</v>
+        <v>984458</v>
       </c>
       <c r="H171" s="11">
-        <v>984458</v>
+        <v>768833</v>
       </c>
       <c r="I171" s="11">
-        <v>768833</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>932281</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>32</v>
       </c>
@@ -3948,22 +3983,22 @@
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9">
-        <v>814240223</v>
+        <v>822468966</v>
       </c>
       <c r="F172" s="9">
-        <v>822468966</v>
+        <v>927084211</v>
       </c>
       <c r="G172" s="9">
-        <v>927084211</v>
+        <v>982290323</v>
       </c>
       <c r="H172" s="9">
-        <v>982290323</v>
+        <v>819696429</v>
       </c>
       <c r="I172" s="9">
-        <v>819696429</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>824111111</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3973,7 +4008,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3983,7 +4018,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3993,7 +4028,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
         <v>47</v>
       </c>
@@ -4015,7 +4050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4025,29 +4060,29 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9">
-        <v>4812</v>
+        <v>10017</v>
       </c>
       <c r="F178" s="9">
-        <v>10017</v>
+        <v>17646</v>
       </c>
       <c r="G178" s="9">
-        <v>17646</v>
+        <v>9861</v>
       </c>
       <c r="H178" s="9">
-        <v>9861</v>
+        <v>7791</v>
       </c>
       <c r="I178" s="9">
-        <v>7791</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24031</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>49</v>
       </c>
@@ -4069,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>50</v>
       </c>
@@ -4091,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>51</v>
       </c>
@@ -4113,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>52</v>
       </c>
@@ -4135,73 +4170,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11">
-        <v>76060</v>
+        <v>110976</v>
       </c>
       <c r="F183" s="11">
-        <v>110976</v>
+        <v>174835</v>
       </c>
       <c r="G183" s="11">
-        <v>174835</v>
+        <v>94493</v>
       </c>
       <c r="H183" s="11">
-        <v>94493</v>
+        <v>141776</v>
       </c>
       <c r="I183" s="11">
-        <v>141776</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121187</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9">
-        <v>38216</v>
+        <v>40146</v>
       </c>
       <c r="F184" s="9">
-        <v>40146</v>
+        <v>52855</v>
       </c>
       <c r="G184" s="9">
-        <v>52855</v>
+        <v>65990</v>
       </c>
       <c r="H184" s="9">
-        <v>65990</v>
+        <v>66196</v>
       </c>
       <c r="I184" s="9">
-        <v>66196</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+        <v>80052</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11">
-        <v>73862</v>
+        <v>93719</v>
       </c>
       <c r="F185" s="11">
-        <v>93719</v>
+        <v>131114</v>
       </c>
       <c r="G185" s="11">
-        <v>131114</v>
+        <v>121400</v>
       </c>
       <c r="H185" s="11">
-        <v>121400</v>
+        <v>179458</v>
       </c>
       <c r="I185" s="11">
-        <v>179458</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102080</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
         <v>56</v>
       </c>
@@ -4223,51 +4258,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11">
-        <v>36874</v>
+        <v>37204</v>
       </c>
       <c r="F187" s="11">
-        <v>37204</v>
+        <v>59461</v>
       </c>
       <c r="G187" s="11">
-        <v>59461</v>
+        <v>28323</v>
       </c>
       <c r="H187" s="11">
-        <v>28323</v>
+        <v>8655</v>
       </c>
       <c r="I187" s="11">
-        <v>8655</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30815</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15">
-        <v>229824</v>
+        <v>292062</v>
       </c>
       <c r="F188" s="15">
-        <v>292062</v>
+        <v>435911</v>
       </c>
       <c r="G188" s="15">
-        <v>435911</v>
+        <v>320067</v>
       </c>
       <c r="H188" s="15">
-        <v>320067</v>
+        <v>403876</v>
       </c>
       <c r="I188" s="15">
-        <v>403876</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358165</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4277,7 +4312,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4287,7 +4322,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4297,7 +4332,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B192" s="7" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4344,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4319,7 +4354,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>59</v>
       </c>
@@ -4333,7 +4368,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>61</v>
       </c>
@@ -4347,7 +4382,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>63</v>
       </c>
@@ -4358,7 +4393,7 @@
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>65</v>
       </c>
@@ -4369,7 +4404,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>67</v>
       </c>
@@ -4380,7 +4415,7 @@
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>69</v>
       </c>
@@ -4391,7 +4426,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="8" t="s">
         <v>71</v>
       </c>
@@ -4402,7 +4437,7 @@
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
         <v>73</v>
       </c>
@@ -4413,7 +4448,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>74</v>
       </c>
@@ -4424,7 +4459,7 @@
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>75</v>
       </c>
@@ -4435,7 +4470,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>77</v>
       </c>
@@ -4446,7 +4481,7 @@
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>74</v>
       </c>
@@ -4457,7 +4492,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>78</v>
       </c>

--- a/database/industries/chemical/shamla/cost/quarterly.xlsx
+++ b/database/industries/chemical/shamla/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\shamla\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93A452-57CC-4C84-A336-7023E4766AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53F789-E79A-4137-989C-F24C771FAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -717,16 +732,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I206"/>
+  <dimension ref="B1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -735,8 +750,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,8 +767,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -759,8 +784,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -769,8 +799,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -781,8 +816,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -793,8 +833,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -803,8 +848,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -825,8 +875,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -835,98 +900,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>129235</v>
+      </c>
+      <c r="F10" s="9">
+        <v>152909</v>
+      </c>
+      <c r="G10" s="9">
+        <v>211867</v>
+      </c>
+      <c r="H10" s="9">
+        <v>237780</v>
+      </c>
+      <c r="I10" s="9">
+        <v>273808</v>
+      </c>
+      <c r="J10" s="9">
         <v>328873</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>489886</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>420175</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>412557</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>434212</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>57027</v>
+      </c>
+      <c r="F11" s="11">
+        <v>56183</v>
+      </c>
+      <c r="G11" s="11">
+        <v>79150</v>
+      </c>
+      <c r="H11" s="11">
+        <v>100970</v>
+      </c>
+      <c r="I11" s="11">
+        <v>93841</v>
+      </c>
+      <c r="J11" s="11">
         <v>102699</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>119312</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>123641</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>182504</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>146415</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>135570</v>
+      </c>
+      <c r="F12" s="9">
+        <v>134047</v>
+      </c>
+      <c r="G12" s="9">
+        <v>207954</v>
+      </c>
+      <c r="H12" s="9">
+        <v>203960</v>
+      </c>
+      <c r="I12" s="9">
+        <v>229824</v>
+      </c>
+      <c r="J12" s="9">
         <v>292062</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>435911</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>320067</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>403876</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>358165</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>321832</v>
+      </c>
+      <c r="F13" s="13">
+        <v>343139</v>
+      </c>
+      <c r="G13" s="13">
+        <v>498971</v>
+      </c>
+      <c r="H13" s="13">
+        <v>542710</v>
+      </c>
+      <c r="I13" s="13">
+        <v>597473</v>
+      </c>
+      <c r="J13" s="13">
         <v>723634</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1045109</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>863883</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>998937</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>938792</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -945,32 +1075,62 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>321832</v>
+      </c>
+      <c r="F15" s="13">
+        <v>343139</v>
+      </c>
+      <c r="G15" s="13">
+        <v>498971</v>
+      </c>
+      <c r="H15" s="13">
+        <v>542710</v>
+      </c>
+      <c r="I15" s="13">
+        <v>597473</v>
+      </c>
+      <c r="J15" s="13">
         <v>723634</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1045109</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>863883</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>998937</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>938792</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -989,10 +1149,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1011,32 +1186,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>321832</v>
+      </c>
+      <c r="F18" s="15">
+        <v>343139</v>
+      </c>
+      <c r="G18" s="15">
+        <v>498971</v>
+      </c>
+      <c r="H18" s="15">
+        <v>542710</v>
+      </c>
+      <c r="I18" s="15">
+        <v>597473</v>
+      </c>
+      <c r="J18" s="15">
         <v>723634</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1045109</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>863883</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>998937</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>938792</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1044,65 +1249,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>21678</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>17651</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>96674</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>151085</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>140463</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>1511</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-7512</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-2182</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-25768</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-17045</v>
+      </c>
+      <c r="J20" s="9">
         <v>-17651</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-96674</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-151085</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-140463</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-122549</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>323343</v>
+      </c>
+      <c r="F21" s="13">
+        <v>335627</v>
+      </c>
+      <c r="G21" s="13">
+        <v>496789</v>
+      </c>
+      <c r="H21" s="13">
+        <v>538620</v>
+      </c>
+      <c r="I21" s="13">
+        <v>580428</v>
+      </c>
+      <c r="J21" s="13">
         <v>705983</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1008899</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>809472</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1009559</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>956706</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1121,30 +1371,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>323343</v>
+      </c>
+      <c r="F23" s="13">
+        <v>335627</v>
+      </c>
+      <c r="G23" s="13">
+        <v>496789</v>
+      </c>
+      <c r="H23" s="13">
+        <v>538620</v>
+      </c>
+      <c r="I23" s="13">
+        <v>580428</v>
+      </c>
+      <c r="J23" s="13">
         <v>705983</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1008899</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>809472</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1009559</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>956706</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1153,8 +1433,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1163,8 +1448,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1173,10 +1463,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1195,8 +1490,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1205,196 +1515,321 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>1236</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>1870</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>2025</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
         <v>15675</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
         <v>293314</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>293314</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>203314</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>10666</v>
+      </c>
+      <c r="F32" s="11">
+        <v>12041</v>
+      </c>
+      <c r="G32" s="11">
+        <v>19580</v>
+      </c>
+      <c r="H32" s="11">
+        <v>21146</v>
+      </c>
+      <c r="I32" s="11">
+        <v>26536</v>
+      </c>
+      <c r="J32" s="11">
         <v>28423</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>176250</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>172768</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>29819</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>51252</v>
+      </c>
+      <c r="F33" s="9">
+        <v>47941</v>
+      </c>
+      <c r="G33" s="9">
+        <v>60288</v>
+      </c>
+      <c r="H33" s="9">
+        <v>69365</v>
+      </c>
+      <c r="I33" s="9">
+        <v>80512</v>
+      </c>
+      <c r="J33" s="9">
         <v>86711</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
         <v>94899</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>92838</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>79895</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>538840</v>
+      </c>
+      <c r="F34" s="11">
+        <v>863107</v>
+      </c>
+      <c r="G34" s="11">
+        <v>155006</v>
+      </c>
+      <c r="H34" s="11">
+        <v>693482</v>
+      </c>
+      <c r="I34" s="11">
+        <v>524686</v>
+      </c>
+      <c r="J34" s="11">
         <v>1154032</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11">
         <v>722062</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>518926</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>1087614</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>67</v>
+      </c>
+      <c r="F35" s="9">
+        <v>41900</v>
+      </c>
+      <c r="G35" s="9">
+        <v>15175</v>
+      </c>
+      <c r="H35" s="9">
+        <v>132</v>
+      </c>
+      <c r="I35" s="9">
+        <v>205</v>
+      </c>
+      <c r="J35" s="9">
         <v>179</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9">
         <v>95</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>62</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>600825</v>
+      </c>
+      <c r="F36" s="13">
+        <v>964989</v>
+      </c>
+      <c r="G36" s="13">
+        <v>250049</v>
+      </c>
+      <c r="H36" s="13">
+        <v>784125</v>
+      </c>
+      <c r="I36" s="13">
+        <v>631939</v>
+      </c>
+      <c r="J36" s="13">
         <v>1285020</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
         <v>1287856</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>1079778</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>1402723</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1403,8 +1838,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1413,8 +1853,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1423,10 +1868,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1445,8 +1895,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1455,196 +1920,321 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="9">
         <v>-25</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>461</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>634</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>155</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>-24</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I43" s="11">
+        <v>800</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
         <v>200000</v>
       </c>
-      <c r="F44" s="9">
+      <c r="J44" s="9">
         <v>200000</v>
       </c>
-      <c r="G44" s="9">
+      <c r="K44" s="9">
         <v>200000</v>
       </c>
-      <c r="H44" s="9">
+      <c r="L44" s="9">
+        <v>200000</v>
+      </c>
+      <c r="M44" s="9">
         <v>10000</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>118245</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>13575</v>
+      </c>
+      <c r="F45" s="11">
+        <v>20379</v>
+      </c>
+      <c r="G45" s="11">
+        <v>16945</v>
+      </c>
+      <c r="H45" s="11">
+        <v>19840</v>
+      </c>
+      <c r="I45" s="11">
+        <v>16887</v>
+      </c>
+      <c r="J45" s="11">
         <v>11561</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>159865</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>8618</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>22407</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>12436</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>21469</v>
+      </c>
+      <c r="F46" s="9">
+        <v>33697</v>
+      </c>
+      <c r="G46" s="9">
+        <v>27106</v>
+      </c>
+      <c r="H46" s="9">
+        <v>24861</v>
+      </c>
+      <c r="I46" s="9">
+        <v>36266</v>
+      </c>
+      <c r="J46" s="9">
         <v>17460</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>20087</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>20859</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>18054</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>-526</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>527227</v>
+      </c>
+      <c r="F47" s="11">
+        <v>-513281</v>
+      </c>
+      <c r="G47" s="11">
+        <v>742617</v>
+      </c>
+      <c r="H47" s="11">
+        <v>51514</v>
+      </c>
+      <c r="I47" s="11">
+        <v>836947</v>
+      </c>
+      <c r="J47" s="11">
         <v>-52534</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>56184</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>27214</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>746776</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>39723</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>-849</v>
+      </c>
+      <c r="H48" s="9">
+        <v>105</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>1</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>-13</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>13</v>
       </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>563271</v>
+      </c>
+      <c r="F49" s="13">
+        <v>-459205</v>
+      </c>
+      <c r="G49" s="13">
+        <v>785819</v>
+      </c>
+      <c r="H49" s="13">
+        <v>96320</v>
+      </c>
+      <c r="I49" s="13">
+        <v>1090900</v>
+      </c>
+      <c r="J49" s="13">
         <v>176463</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>436584</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>257326</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>797405</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>169854</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1653,8 +2243,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1663,8 +2258,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1673,10 +2273,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1695,8 +2300,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1705,196 +2325,321 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>184325</v>
+      </c>
+      <c r="J57" s="9">
         <v>129623</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>142738</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>200000</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>100000</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>120000</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>12200</v>
+      </c>
+      <c r="F58" s="11">
+        <v>12840</v>
+      </c>
+      <c r="G58" s="11">
+        <v>14600</v>
+      </c>
+      <c r="H58" s="11">
+        <v>14450</v>
+      </c>
+      <c r="I58" s="11">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="11">
         <v>12599</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>11000</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>12100</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>15050</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>14282</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>24780</v>
+      </c>
+      <c r="F59" s="9">
+        <v>21350</v>
+      </c>
+      <c r="G59" s="9">
+        <v>16888</v>
+      </c>
+      <c r="H59" s="9">
+        <v>13714</v>
+      </c>
+      <c r="I59" s="9">
+        <v>30067</v>
+      </c>
+      <c r="J59" s="9">
         <v>8350</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>21009</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>22920</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>30997</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>19646</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>202960</v>
+      </c>
+      <c r="F60" s="11">
+        <v>194820</v>
+      </c>
+      <c r="G60" s="11">
+        <v>204101</v>
+      </c>
+      <c r="H60" s="11">
+        <v>220310</v>
+      </c>
+      <c r="I60" s="11">
+        <v>207601</v>
+      </c>
+      <c r="J60" s="11">
         <v>216630</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>219030</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>230350</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>178088</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>183427</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>50975</v>
+      </c>
+      <c r="F61" s="9">
+        <v>26725</v>
+      </c>
+      <c r="G61" s="9">
+        <v>-77614</v>
+      </c>
+      <c r="H61" s="9">
+        <v>32</v>
+      </c>
+      <c r="I61" s="9">
+        <v>26</v>
+      </c>
+      <c r="J61" s="9">
         <v>35</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>37</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>34</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>19</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>290915</v>
+      </c>
+      <c r="F62" s="13">
+        <v>255735</v>
+      </c>
+      <c r="G62" s="13">
+        <v>157975</v>
+      </c>
+      <c r="H62" s="13">
+        <v>248506</v>
+      </c>
+      <c r="I62" s="13">
+        <v>437019</v>
+      </c>
+      <c r="J62" s="13">
         <v>367237</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>393814</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>465404</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>324154</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>337375</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1903,8 +2648,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1913,8 +2663,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1923,10 +2678,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1945,8 +2705,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1955,196 +2730,321 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
+      <c r="E68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="9">
         <v>775</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>1236</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>1870</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>2025</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>2025</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I69" s="11">
+        <v>800</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
+        <v>0</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>15675</v>
+      </c>
+      <c r="J70" s="9">
         <v>86052</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>293314</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>293314</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>203314</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>201559</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>12041</v>
+      </c>
+      <c r="F71" s="11">
+        <v>19580</v>
+      </c>
+      <c r="G71" s="11">
+        <v>21925</v>
+      </c>
+      <c r="H71" s="11">
+        <v>26536</v>
+      </c>
+      <c r="I71" s="11">
+        <v>28423</v>
+      </c>
+      <c r="J71" s="11">
         <v>27385</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>176250</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>172768</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>29819</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>27973</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>47941</v>
+      </c>
+      <c r="F72" s="9">
+        <v>60288</v>
+      </c>
+      <c r="G72" s="9">
+        <v>70506</v>
+      </c>
+      <c r="H72" s="9">
+        <v>80512</v>
+      </c>
+      <c r="I72" s="9">
+        <v>86711</v>
+      </c>
+      <c r="J72" s="9">
         <v>95821</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>94899</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>92838</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>79895</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>59723</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>863107</v>
+      </c>
+      <c r="F73" s="11">
+        <v>155006</v>
+      </c>
+      <c r="G73" s="11">
+        <v>693522</v>
+      </c>
+      <c r="H73" s="11">
+        <v>524686</v>
+      </c>
+      <c r="I73" s="11">
+        <v>1154032</v>
+      </c>
+      <c r="J73" s="11">
         <v>884868</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>722062</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>518926</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>1087614</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>943910</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>41900</v>
+      </c>
+      <c r="F74" s="9">
+        <v>15175</v>
+      </c>
+      <c r="G74" s="9">
+        <v>132</v>
+      </c>
+      <c r="H74" s="9">
+        <v>205</v>
+      </c>
+      <c r="I74" s="9">
+        <v>179</v>
+      </c>
+      <c r="J74" s="9">
         <v>145</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>95</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>62</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>56</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>964989</v>
+      </c>
+      <c r="F75" s="13">
+        <v>250049</v>
+      </c>
+      <c r="G75" s="13">
+        <v>786085</v>
+      </c>
+      <c r="H75" s="13">
+        <v>631939</v>
+      </c>
+      <c r="I75" s="13">
+        <v>1285820</v>
+      </c>
+      <c r="J75" s="13">
         <v>1095046</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>1287856</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>1079778</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>1402723</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>1235226</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2153,8 +3053,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2163,8 +3068,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2173,10 +3083,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2195,8 +3110,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2205,198 +3135,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="9">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9">
         <v>111488</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>166616</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>180140</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>45938</v>
+      </c>
+      <c r="F83" s="9">
+        <v>67948</v>
+      </c>
+      <c r="G83" s="9">
+        <v>94923</v>
+      </c>
+      <c r="H83" s="9">
+        <v>94727</v>
+      </c>
+      <c r="I83" s="9">
+        <v>106374</v>
+      </c>
+      <c r="J83" s="9">
         <v>106179</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="K83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9">
         <v>202929</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>208040</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>138289</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>6282</v>
+      </c>
+      <c r="F84" s="11">
+        <v>9720</v>
+      </c>
+      <c r="G84" s="11">
+        <v>16827</v>
+      </c>
+      <c r="H84" s="11">
+        <v>20641</v>
+      </c>
+      <c r="I84" s="11">
+        <v>31306</v>
+      </c>
+      <c r="J84" s="11">
         <v>37717</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="11">
+      <c r="K84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84" s="11">
         <v>37619</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>34365</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>53047</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>9889</v>
+      </c>
+      <c r="F85" s="9">
+        <v>12362</v>
+      </c>
+      <c r="G85" s="9">
+        <v>21539</v>
+      </c>
+      <c r="H85" s="9">
+        <v>29131</v>
+      </c>
+      <c r="I85" s="9">
+        <v>39435</v>
+      </c>
+      <c r="J85" s="9">
         <v>46586</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9">
         <v>66554</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>71049</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>62011</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>115260</v>
+      </c>
+      <c r="F86" s="11">
+        <v>145756</v>
+      </c>
+      <c r="G86" s="11">
+        <v>165838</v>
+      </c>
+      <c r="H86" s="11">
+        <v>211275</v>
+      </c>
+      <c r="I86" s="11">
+        <v>205269</v>
+      </c>
+      <c r="J86" s="11">
         <v>308263</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11">
         <v>493958</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>510861</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>836194</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>13928</v>
+      </c>
+      <c r="F87" s="9">
+        <v>8876</v>
+      </c>
+      <c r="G87" s="9">
+        <v>3145</v>
+      </c>
+      <c r="H87" s="9">
+        <v>102690</v>
+      </c>
+      <c r="I87" s="9">
+        <v>167202</v>
+      </c>
+      <c r="J87" s="9">
         <v>145749</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9">
         <v>88073</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>60902</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>45903</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>191297</v>
+      </c>
+      <c r="F88" s="13">
+        <v>244662</v>
+      </c>
+      <c r="G88" s="13">
+        <v>302272</v>
+      </c>
+      <c r="H88" s="13">
+        <v>458464</v>
+      </c>
+      <c r="I88" s="13">
+        <v>549586</v>
+      </c>
+      <c r="J88" s="13">
         <v>644494</v>
       </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="K88" s="13">
+        <v>0</v>
+      </c>
+      <c r="L88" s="13">
         <v>1000621</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>1051833</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>1315584</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2405,8 +3460,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2415,8 +3475,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2425,10 +3490,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2447,8 +3517,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2457,198 +3542,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
+      <c r="E94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="9">
         <v>-4837</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>40136</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>55128</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>13524</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>-235</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I95" s="11">
+        <v>76189</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>57390</v>
+      </c>
+      <c r="F96" s="9">
+        <v>64886</v>
+      </c>
+      <c r="G96" s="9">
+        <v>61675</v>
+      </c>
+      <c r="H96" s="9">
+        <v>70261</v>
+      </c>
+      <c r="I96" s="9">
+        <v>75860</v>
+      </c>
+      <c r="J96" s="9">
         <v>156555</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>148643</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>101138</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>58855</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>126029</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>12325</v>
+      </c>
+      <c r="F97" s="11">
+        <v>17461</v>
+      </c>
+      <c r="G97" s="11">
+        <v>18252</v>
+      </c>
+      <c r="H97" s="11">
+        <v>26522</v>
+      </c>
+      <c r="I97" s="11">
+        <v>25844</v>
+      </c>
+      <c r="J97" s="11">
         <v>17498</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>15365</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>14783</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>45010</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>21452</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>9422</v>
+      </c>
+      <c r="F98" s="9">
+        <v>19696</v>
+      </c>
+      <c r="G98" s="9">
+        <v>16568</v>
+      </c>
+      <c r="H98" s="9">
+        <v>16548</v>
+      </c>
+      <c r="I98" s="9">
+        <v>25029</v>
+      </c>
+      <c r="J98" s="9">
         <v>15318</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>22503</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>21751</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>15511</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>644</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>102974</v>
+      </c>
+      <c r="F99" s="11">
+        <v>108476</v>
+      </c>
+      <c r="G99" s="11">
+        <v>152755</v>
+      </c>
+      <c r="H99" s="11">
+        <v>125911</v>
+      </c>
+      <c r="I99" s="11">
+        <v>241983</v>
+      </c>
+      <c r="J99" s="11">
         <v>170038</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>516972</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>277671</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>543252</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>297390</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
+        <v>490</v>
+      </c>
+      <c r="F100" s="9">
+        <v>0</v>
+      </c>
+      <c r="G100" s="9">
+        <v>118809</v>
+      </c>
+      <c r="H100" s="9">
+        <v>89660</v>
+      </c>
+      <c r="I100" s="9">
+        <v>0</v>
+      </c>
+      <c r="J100" s="9">
         <v>792</v>
       </c>
-      <c r="F100" s="9">
+      <c r="K100" s="9">
         <v>-286</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>916</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>156</v>
       </c>
-      <c r="I100" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N100" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>182601</v>
+      </c>
+      <c r="F101" s="13">
+        <v>210519</v>
+      </c>
+      <c r="G101" s="13">
+        <v>368059</v>
+      </c>
+      <c r="H101" s="13">
+        <v>328902</v>
+      </c>
+      <c r="I101" s="13">
+        <v>444905</v>
+      </c>
+      <c r="J101" s="13">
         <v>355364</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>743333</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>471387</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>676308</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>445280</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2657,8 +3867,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2667,8 +3882,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2677,10 +3897,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2699,8 +3924,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2709,198 +3949,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>35381</v>
+      </c>
+      <c r="F109" s="9">
+        <v>37911</v>
+      </c>
+      <c r="G109" s="9">
+        <v>62373</v>
+      </c>
+      <c r="H109" s="9">
+        <v>58614</v>
+      </c>
+      <c r="I109" s="9">
+        <v>76055</v>
+      </c>
+      <c r="J109" s="9">
         <v>102893</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>105555</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>96027</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>128606</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>124227</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>8888</v>
+      </c>
+      <c r="F110" s="11">
+        <v>10354</v>
+      </c>
+      <c r="G110" s="11">
+        <v>13988</v>
+      </c>
+      <c r="H110" s="11">
+        <v>15857</v>
+      </c>
+      <c r="I110" s="11">
+        <v>19433</v>
+      </c>
+      <c r="J110" s="11">
         <v>17248</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>15713</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>18037</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>26328</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>25243</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>6949</v>
+      </c>
+      <c r="F111" s="9">
+        <v>10519</v>
+      </c>
+      <c r="G111" s="9">
+        <v>8924</v>
+      </c>
+      <c r="H111" s="9">
+        <v>6244</v>
+      </c>
+      <c r="I111" s="9">
+        <v>17878</v>
+      </c>
+      <c r="J111" s="9">
         <v>3317</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>14536</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>17256</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>24549</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>14911</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>72475</v>
+      </c>
+      <c r="F112" s="11">
+        <v>88394</v>
+      </c>
+      <c r="G112" s="11">
+        <v>107318</v>
+      </c>
+      <c r="H112" s="11">
+        <v>131917</v>
+      </c>
+      <c r="I112" s="11">
+        <v>138989</v>
+      </c>
+      <c r="J112" s="11">
         <v>178132</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>323183</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>260768</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>217919</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>253596</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>5542</v>
+      </c>
+      <c r="F113" s="9">
+        <v>5731</v>
+      </c>
+      <c r="G113" s="9">
+        <v>19264</v>
+      </c>
+      <c r="H113" s="9">
+        <v>25148</v>
+      </c>
+      <c r="I113" s="9">
+        <v>21453</v>
+      </c>
+      <c r="J113" s="9">
         <v>27283</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>30899</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>28087</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>15155</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>16235</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>129235</v>
+      </c>
+      <c r="F114" s="13">
+        <v>152909</v>
+      </c>
+      <c r="G114" s="13">
+        <v>211867</v>
+      </c>
+      <c r="H114" s="13">
+        <v>237780</v>
+      </c>
+      <c r="I114" s="13">
+        <v>273808</v>
+      </c>
+      <c r="J114" s="13">
         <v>328873</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>489886</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>420175</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>412557</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>434212</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2909,8 +4274,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2919,8 +4289,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2929,10 +4304,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2951,8 +4331,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2961,198 +4356,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
+      <c r="E120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="9">
         <v>71352</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>111488</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>166616</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>180140</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>180140</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I121" s="11">
+        <v>76189</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>67948</v>
+      </c>
+      <c r="F122" s="9">
+        <v>94923</v>
+      </c>
+      <c r="G122" s="9">
+        <v>94225</v>
+      </c>
+      <c r="H122" s="9">
+        <v>106374</v>
+      </c>
+      <c r="I122" s="9">
+        <v>106179</v>
+      </c>
+      <c r="J122" s="9">
         <v>159841</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>202929</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>208040</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>138289</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>139853</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>9720</v>
+      </c>
+      <c r="F123" s="11">
+        <v>16827</v>
+      </c>
+      <c r="G123" s="11">
+        <v>21091</v>
+      </c>
+      <c r="H123" s="11">
+        <v>31306</v>
+      </c>
+      <c r="I123" s="11">
+        <v>37717</v>
+      </c>
+      <c r="J123" s="11">
         <v>37967</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>37619</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>34365</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>53047</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>49257</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>12362</v>
+      </c>
+      <c r="F124" s="9">
+        <v>21539</v>
+      </c>
+      <c r="G124" s="9">
+        <v>29183</v>
+      </c>
+      <c r="H124" s="9">
+        <v>39435</v>
+      </c>
+      <c r="I124" s="9">
+        <v>46586</v>
+      </c>
+      <c r="J124" s="9">
         <v>58587</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>66554</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>71049</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>62011</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>47745</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>145756</v>
+      </c>
+      <c r="F125" s="11">
+        <v>165838</v>
+      </c>
+      <c r="G125" s="11">
+        <v>211275</v>
+      </c>
+      <c r="H125" s="11">
+        <v>205269</v>
+      </c>
+      <c r="I125" s="11">
+        <v>308263</v>
+      </c>
+      <c r="J125" s="11">
         <v>300169</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>493958</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>510861</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>836194</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>879989</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
+        <v>8876</v>
+      </c>
+      <c r="F126" s="9">
+        <v>3145</v>
+      </c>
+      <c r="G126" s="9">
+        <v>102690</v>
+      </c>
+      <c r="H126" s="9">
+        <v>167202</v>
+      </c>
+      <c r="I126" s="9">
+        <v>145749</v>
+      </c>
+      <c r="J126" s="9">
         <v>119258</v>
       </c>
-      <c r="F126" s="9">
+      <c r="K126" s="9">
         <v>88073</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>60902</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>45903</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>29668</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>244662</v>
+      </c>
+      <c r="F127" s="13">
+        <v>302272</v>
+      </c>
+      <c r="G127" s="13">
+        <v>458464</v>
+      </c>
+      <c r="H127" s="13">
+        <v>549586</v>
+      </c>
+      <c r="I127" s="13">
+        <v>720683</v>
+      </c>
+      <c r="J127" s="13">
         <v>747174</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>1000621</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>1051833</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>1315584</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>1326652</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3161,8 +4681,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3171,8 +4696,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3181,10 +4711,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3203,8 +4738,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3213,152 +4763,247 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="9">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9">
         <v>90200647</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>89099465</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>88958025</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="11">
+        <v>31</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="11">
         <v>1857493</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>691849</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>709274</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>680175</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>588974</v>
+      </c>
+      <c r="F135" s="9">
+        <v>807242</v>
+      </c>
+      <c r="G135" s="9">
+        <v>859397</v>
+      </c>
+      <c r="H135" s="9">
+        <v>976118</v>
+      </c>
+      <c r="I135" s="9">
+        <v>1179756</v>
+      </c>
+      <c r="J135" s="9">
         <v>1326989</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>1386416</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>213441</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>198908</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>1778966</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>192949</v>
+      </c>
+      <c r="F136" s="11">
+        <v>257859</v>
+      </c>
+      <c r="G136" s="11">
+        <v>357268</v>
+      </c>
+      <c r="H136" s="11">
+        <v>419967</v>
+      </c>
+      <c r="I136" s="11">
+        <v>489803</v>
+      </c>
+      <c r="J136" s="11">
         <v>537256</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>611421</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>701314</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>765301</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>776156</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>213904</v>
+      </c>
+      <c r="F137" s="9">
+        <v>168874</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1069881</v>
+      </c>
+      <c r="H137" s="9">
+        <v>304658</v>
+      </c>
+      <c r="I137" s="9">
+        <v>391223</v>
+      </c>
+      <c r="J137" s="9">
         <v>267118</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>339225</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>684094</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>984458</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>768833</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>207880597</v>
+      </c>
+      <c r="F138" s="11">
+        <v>211838</v>
+      </c>
+      <c r="G138" s="11">
+        <v>207249</v>
+      </c>
+      <c r="H138" s="11">
+        <v>777954545</v>
+      </c>
+      <c r="I138" s="11">
+        <v>815619512</v>
+      </c>
+      <c r="J138" s="11">
         <v>814240223</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>822468966</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>927084211</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>982290323</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>819696429</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3367,8 +5012,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3377,8 +5027,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3387,10 +5042,15 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3409,8 +5069,23 @@
       <c r="I142" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3419,176 +5094,286 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D144" s="9"/>
-      <c r="E144" s="9">
+      <c r="E144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" s="9">
         <v>193480000</v>
       </c>
-      <c r="F144" s="9">
+      <c r="K144" s="9">
         <v>87062907</v>
       </c>
-      <c r="G144" s="9">
+      <c r="L144" s="9">
         <v>86952681</v>
       </c>
-      <c r="H144" s="9">
+      <c r="M144" s="9">
         <v>87251613</v>
       </c>
-      <c r="I144" s="9">
+      <c r="N144" s="9">
         <v>9791667</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I145" s="11">
+        <v>95236250</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9">
+      <c r="E146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="9">
+        <v>379300</v>
+      </c>
+      <c r="J146" s="9">
         <v>782775</v>
       </c>
-      <c r="F146" s="9">
+      <c r="K146" s="9">
         <v>743215</v>
       </c>
-      <c r="G146" s="9">
+      <c r="L146" s="9">
         <v>505690</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>5885500</v>
       </c>
-      <c r="I146" s="9">
+      <c r="N146" s="9">
         <v>1065829</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
+        <v>907919</v>
+      </c>
+      <c r="F147" s="11">
+        <v>856813</v>
+      </c>
+      <c r="G147" s="11">
+        <v>1077132</v>
+      </c>
+      <c r="H147" s="11">
+        <v>1336794</v>
+      </c>
+      <c r="I147" s="11">
+        <v>1530408</v>
+      </c>
+      <c r="J147" s="11">
         <v>1513537</v>
       </c>
-      <c r="F147" s="11">
+      <c r="K147" s="11">
         <v>96112</v>
       </c>
-      <c r="G147" s="11">
+      <c r="L147" s="11">
         <v>1715363</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>2008747</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>1724992</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
+        <v>438865</v>
+      </c>
+      <c r="F148" s="9">
+        <v>584503</v>
+      </c>
+      <c r="G148" s="9">
+        <v>611230</v>
+      </c>
+      <c r="H148" s="9">
+        <v>665621</v>
+      </c>
+      <c r="I148" s="9">
+        <v>690151</v>
+      </c>
+      <c r="J148" s="9">
         <v>877320</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>1120277</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>1042763</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>859145</v>
       </c>
-      <c r="I148" s="9">
-        <v>-1224335</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N148" s="9">
+        <v>1224335</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
+        <v>195312</v>
+      </c>
+      <c r="F149" s="11">
+        <v>-211338</v>
+      </c>
+      <c r="G149" s="11">
+        <v>205698</v>
+      </c>
+      <c r="H149" s="11">
+        <v>2444209</v>
+      </c>
+      <c r="I149" s="11">
+        <v>289126</v>
+      </c>
+      <c r="J149" s="11">
         <v>-3236723</v>
       </c>
-      <c r="F149" s="11">
+      <c r="K149" s="11">
         <v>9201410</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>10203241</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>727463</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>7486595</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
+        <v>490000</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="9">
+        <v>-139939929</v>
+      </c>
+      <c r="H150" s="9">
+        <v>853904762</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="9">
         <v>792000000</v>
       </c>
-      <c r="F150" s="9">
+      <c r="K150" s="9">
         <v>22000000</v>
       </c>
-      <c r="G150" s="9">
+      <c r="L150" s="9">
         <v>916000000</v>
       </c>
-      <c r="H150" s="9">
+      <c r="M150" s="9">
         <v>12000000</v>
       </c>
-      <c r="I150" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N150" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3597,8 +5382,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3607,8 +5397,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3617,10 +5412,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3639,8 +5439,23 @@
       <c r="I154" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3649,128 +5464,208 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9">
+      <c r="E156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="9">
+        <v>412614</v>
+      </c>
+      <c r="J156" s="9">
         <v>793787</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>739502</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>480135</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>1286060</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>1035225</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
+        <v>728525</v>
+      </c>
+      <c r="F157" s="11">
+        <v>806386</v>
+      </c>
+      <c r="G157" s="11">
+        <v>958082</v>
+      </c>
+      <c r="H157" s="11">
+        <v>1097370</v>
+      </c>
+      <c r="I157" s="11">
+        <v>1295533</v>
+      </c>
+      <c r="J157" s="11">
         <v>1368998</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>1428455</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>1490661</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>1749369</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>1767470</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
+        <v>280428</v>
+      </c>
+      <c r="F158" s="9">
+        <v>492693</v>
+      </c>
+      <c r="G158" s="9">
+        <v>528423</v>
+      </c>
+      <c r="H158" s="9">
+        <v>455301</v>
+      </c>
+      <c r="I158" s="9">
+        <v>594605</v>
+      </c>
+      <c r="J158" s="9">
         <v>397246</v>
       </c>
-      <c r="F158" s="9">
+      <c r="K158" s="9">
         <v>691894</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>752880</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>791980</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>758984</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11">
+        <v>357090</v>
+      </c>
+      <c r="F159" s="11">
+        <v>453721</v>
+      </c>
+      <c r="G159" s="11">
+        <v>525808</v>
+      </c>
+      <c r="H159" s="11">
+        <v>598779</v>
+      </c>
+      <c r="I159" s="11">
+        <v>669501</v>
+      </c>
+      <c r="J159" s="11">
         <v>822287</v>
       </c>
-      <c r="F159" s="11">
+      <c r="K159" s="11">
         <v>1475519</v>
       </c>
-      <c r="G159" s="11">
+      <c r="L159" s="11">
         <v>1132051</v>
       </c>
-      <c r="H159" s="11">
+      <c r="M159" s="11">
         <v>1223659</v>
       </c>
-      <c r="I159" s="11">
+      <c r="N159" s="11">
         <v>1382545</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9">
+        <v>108720</v>
+      </c>
+      <c r="F160" s="9">
+        <v>214443</v>
+      </c>
+      <c r="G160" s="9">
+        <v>-248203</v>
+      </c>
+      <c r="H160" s="9">
+        <v>785875000</v>
+      </c>
+      <c r="I160" s="9">
+        <v>825115385</v>
+      </c>
+      <c r="J160" s="9">
         <v>779514286</v>
       </c>
-      <c r="F160" s="9">
+      <c r="K160" s="9">
         <v>835108108</v>
       </c>
-      <c r="G160" s="9">
+      <c r="L160" s="9">
         <v>826088235</v>
       </c>
-      <c r="H160" s="9">
+      <c r="M160" s="9">
         <v>797631579</v>
       </c>
-      <c r="I160" s="9">
+      <c r="N160" s="9">
         <v>811750000</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3779,8 +5674,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3789,8 +5689,13 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3799,10 +5704,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -3821,8 +5731,23 @@
       <c r="I164" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3831,174 +5756,284 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D166" s="9"/>
-      <c r="E166" s="9">
+      <c r="E166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="9">
         <v>92067097</v>
       </c>
-      <c r="F166" s="9">
+      <c r="K166" s="9">
         <v>90200647</v>
       </c>
-      <c r="G166" s="9">
+      <c r="L166" s="9">
         <v>89099465</v>
       </c>
-      <c r="H166" s="9">
+      <c r="M166" s="9">
         <v>88958025</v>
       </c>
-      <c r="I166" s="9">
+      <c r="N166" s="9">
         <v>88958025</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I167" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I167" s="11">
+        <v>95236250</v>
+      </c>
+      <c r="J167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M167" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="9">
+      <c r="E168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="9">
+        <v>6773780</v>
+      </c>
+      <c r="J168" s="9">
         <v>1857493</v>
       </c>
-      <c r="F168" s="9">
+      <c r="K168" s="9">
         <v>691849</v>
       </c>
-      <c r="G168" s="9">
+      <c r="L168" s="9">
         <v>709274</v>
       </c>
-      <c r="H168" s="9">
+      <c r="M168" s="9">
         <v>680175</v>
       </c>
-      <c r="I168" s="9">
+      <c r="N168" s="9">
         <v>693856</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11">
+      <c r="E169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="11">
+        <v>1326989</v>
+      </c>
+      <c r="J169" s="11">
         <v>1386416</v>
       </c>
-      <c r="F169" s="11">
+      <c r="K169" s="11">
         <v>213441</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>198908</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>1778966</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>1760877</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9">
+      <c r="E170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="9">
+        <v>537256</v>
+      </c>
+      <c r="J170" s="9">
         <v>611421</v>
       </c>
-      <c r="F170" s="9">
+      <c r="K170" s="9">
         <v>701314</v>
       </c>
-      <c r="G170" s="9">
+      <c r="L170" s="9">
         <v>765301</v>
       </c>
-      <c r="H170" s="9">
+      <c r="M170" s="9">
         <v>776156</v>
       </c>
-      <c r="I170" s="9">
+      <c r="N170" s="9">
         <v>799441</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11">
+      <c r="E171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="11">
+        <v>267118</v>
+      </c>
+      <c r="J171" s="11">
         <v>339225</v>
       </c>
-      <c r="F171" s="11">
+      <c r="K171" s="11">
         <v>684094</v>
       </c>
-      <c r="G171" s="11">
+      <c r="L171" s="11">
         <v>984458</v>
       </c>
-      <c r="H171" s="11">
+      <c r="M171" s="11">
         <v>768833</v>
       </c>
-      <c r="I171" s="11">
+      <c r="N171" s="11">
         <v>932281</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9">
+      <c r="E172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="9">
+        <v>814240223</v>
+      </c>
+      <c r="J172" s="9">
         <v>822468966</v>
       </c>
-      <c r="F172" s="9">
+      <c r="K172" s="9">
         <v>927084211</v>
       </c>
-      <c r="G172" s="9">
+      <c r="L172" s="9">
         <v>982290323</v>
       </c>
-      <c r="H172" s="9">
+      <c r="M172" s="9">
         <v>819696429</v>
       </c>
-      <c r="I172" s="9">
+      <c r="N172" s="9">
         <v>824111111</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4007,8 +6042,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4017,8 +6057,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4027,10 +6072,15 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4049,8 +6099,23 @@
       <c r="I176" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M176" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N176" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4059,32 +6124,52 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9">
+        <v>7797</v>
+      </c>
+      <c r="F178" s="9">
+        <v>5964</v>
+      </c>
+      <c r="G178" s="9">
+        <v>5695</v>
+      </c>
+      <c r="H178" s="9">
+        <v>4044</v>
+      </c>
+      <c r="I178" s="9">
+        <v>4812</v>
+      </c>
+      <c r="J178" s="9">
         <v>10017</v>
       </c>
-      <c r="F178" s="9">
+      <c r="K178" s="9">
         <v>17646</v>
       </c>
-      <c r="G178" s="9">
+      <c r="L178" s="9">
         <v>9861</v>
       </c>
-      <c r="H178" s="9">
+      <c r="M178" s="9">
         <v>7791</v>
       </c>
-      <c r="I178" s="9">
+      <c r="N178" s="9">
         <v>24031</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4103,10 +6188,25 @@
       <c r="I179" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="11">
+        <v>0</v>
+      </c>
+      <c r="K179" s="11">
+        <v>0</v>
+      </c>
+      <c r="L179" s="11">
+        <v>0</v>
+      </c>
+      <c r="M179" s="11">
+        <v>0</v>
+      </c>
+      <c r="N179" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -4125,10 +6225,25 @@
       <c r="I180" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="9">
+        <v>0</v>
+      </c>
+      <c r="K180" s="9">
+        <v>0</v>
+      </c>
+      <c r="L180" s="9">
+        <v>0</v>
+      </c>
+      <c r="M180" s="9">
+        <v>0</v>
+      </c>
+      <c r="N180" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -4147,10 +6262,25 @@
       <c r="I181" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="11">
+        <v>0</v>
+      </c>
+      <c r="K181" s="11">
+        <v>0</v>
+      </c>
+      <c r="L181" s="11">
+        <v>0</v>
+      </c>
+      <c r="M181" s="11">
+        <v>0</v>
+      </c>
+      <c r="N181" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -4169,76 +6299,136 @@
       <c r="I182" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="9">
+        <v>0</v>
+      </c>
+      <c r="K182" s="9">
+        <v>0</v>
+      </c>
+      <c r="L182" s="9">
+        <v>0</v>
+      </c>
+      <c r="M182" s="9">
+        <v>0</v>
+      </c>
+      <c r="N182" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11">
+        <v>27359</v>
+      </c>
+      <c r="F183" s="11">
+        <v>30040</v>
+      </c>
+      <c r="G183" s="11">
+        <v>32953</v>
+      </c>
+      <c r="H183" s="11">
+        <v>52252</v>
+      </c>
+      <c r="I183" s="11">
+        <v>76060</v>
+      </c>
+      <c r="J183" s="11">
         <v>110976</v>
       </c>
-      <c r="F183" s="11">
+      <c r="K183" s="11">
         <v>174835</v>
       </c>
-      <c r="G183" s="11">
+      <c r="L183" s="11">
         <v>94493</v>
       </c>
-      <c r="H183" s="11">
+      <c r="M183" s="11">
         <v>141776</v>
       </c>
-      <c r="I183" s="11">
+      <c r="N183" s="11">
         <v>121187</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9">
+        <v>22538</v>
+      </c>
+      <c r="F184" s="9">
+        <v>27364</v>
+      </c>
+      <c r="G184" s="9">
+        <v>30265</v>
+      </c>
+      <c r="H184" s="9">
+        <v>31873</v>
+      </c>
+      <c r="I184" s="9">
+        <v>38216</v>
+      </c>
+      <c r="J184" s="9">
         <v>40146</v>
       </c>
-      <c r="F184" s="9">
+      <c r="K184" s="9">
         <v>52855</v>
       </c>
-      <c r="G184" s="9">
+      <c r="L184" s="9">
         <v>65990</v>
       </c>
-      <c r="H184" s="9">
+      <c r="M184" s="9">
         <v>66196</v>
       </c>
-      <c r="I184" s="9">
+      <c r="N184" s="9">
         <v>80052</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11">
+        <v>56550</v>
+      </c>
+      <c r="F185" s="11">
+        <v>51069</v>
+      </c>
+      <c r="G185" s="11">
+        <v>108795</v>
+      </c>
+      <c r="H185" s="11">
+        <v>103290</v>
+      </c>
+      <c r="I185" s="11">
+        <v>73862</v>
+      </c>
+      <c r="J185" s="11">
         <v>93719</v>
       </c>
-      <c r="F185" s="11">
+      <c r="K185" s="11">
         <v>131114</v>
       </c>
-      <c r="G185" s="11">
+      <c r="L185" s="11">
         <v>121400</v>
       </c>
-      <c r="H185" s="11">
+      <c r="M185" s="11">
         <v>179458</v>
       </c>
-      <c r="I185" s="11">
+      <c r="N185" s="11">
         <v>102080</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -4257,52 +6447,97 @@
       <c r="I186" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="9">
+        <v>0</v>
+      </c>
+      <c r="K186" s="9">
+        <v>0</v>
+      </c>
+      <c r="L186" s="9">
+        <v>0</v>
+      </c>
+      <c r="M186" s="9">
+        <v>0</v>
+      </c>
+      <c r="N186" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11">
+        <v>21326</v>
+      </c>
+      <c r="F187" s="11">
+        <v>19610</v>
+      </c>
+      <c r="G187" s="11">
+        <v>30246</v>
+      </c>
+      <c r="H187" s="11">
+        <v>12501</v>
+      </c>
+      <c r="I187" s="11">
+        <v>36874</v>
+      </c>
+      <c r="J187" s="11">
         <v>37204</v>
       </c>
-      <c r="F187" s="11">
+      <c r="K187" s="11">
         <v>59461</v>
       </c>
-      <c r="G187" s="11">
+      <c r="L187" s="11">
         <v>28323</v>
       </c>
-      <c r="H187" s="11">
+      <c r="M187" s="11">
         <v>8655</v>
       </c>
-      <c r="I187" s="11">
+      <c r="N187" s="11">
         <v>30815</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15">
+        <v>135570</v>
+      </c>
+      <c r="F188" s="15">
+        <v>134047</v>
+      </c>
+      <c r="G188" s="15">
+        <v>207954</v>
+      </c>
+      <c r="H188" s="15">
+        <v>203960</v>
+      </c>
+      <c r="I188" s="15">
+        <v>229824</v>
+      </c>
+      <c r="J188" s="15">
         <v>292062</v>
       </c>
-      <c r="F188" s="15">
+      <c r="K188" s="15">
         <v>435911</v>
       </c>
-      <c r="G188" s="15">
+      <c r="L188" s="15">
         <v>320067</v>
       </c>
-      <c r="H188" s="15">
+      <c r="M188" s="15">
         <v>403876</v>
       </c>
-      <c r="I188" s="15">
+      <c r="N188" s="15">
         <v>358165</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4311,8 +6546,13 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4321,8 +6561,13 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4331,10 +6576,15 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -4343,8 +6593,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4353,13 +6608,18 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -4367,13 +6627,18 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -4381,123 +6646,128 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
